--- a/Project/Relationships in Squirrels/SquirrelData.xlsx
+++ b/Project/Relationships in Squirrels/SquirrelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylorsexton/Desktop/Evolution/Tasks/Project/Relationships in Squirrels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4813DEE9-DAAC-A249-803A-8C2BD88E68D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354111D2-3FCF-E248-AD0A-8DF6BE9AC066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16620" xr2:uid="{264B77BE-28CE-D948-BD10-0CA1F0DB2D4F}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -678,6 +678,1520 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Manidibular Centroid Size in Squirrel Species</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Whole Data'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CS(Average)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Whole Data'!$A$2:$A$185</c:f>
+              <c:strCache>
+                <c:ptCount val="184"/>
+                <c:pt idx="0">
+                  <c:v>Aeretes_melanopterus</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Aeromys_tephromelas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ammospermophilus_harrisii</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ammospermophilus_interpres</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ammospermophilus_leucurus</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Atlantoxerus_getulus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Belomys_pearsonii</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Callosciurus_caniceps</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Callosciurus_erythraeus</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Callosciurus_finlaysonii</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Callosciurus_nigrovittatus</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Callosciurus_notatus</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Callosciurus_prevostii</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Callospermophilus_lateralis</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Callospermophilus_madrensis</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Callospermophilus_saturatus</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Cynomys parvidens</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Cynomys_leucurus</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Cynomys_ludovicianus</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Cynomys_mexicanus</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Cyomys_gunnisoni</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Dremomys_gularis</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Dremomys_lokriah</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Dremomys_pernyi</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Dremomys_pyrrhomerus</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Dremomys_rufigenis</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Eoglaucomys_fimbriatus</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Epixerus_wilsoni</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Exilisciurus_concinnus</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Exilisciurus_exilis</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Exilisciurus_whiteheadi</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Funambulus_palmarum</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Funambulus_pennantii</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Funisciurus_ anerythrus</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Funisciurus_lemniscatus</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Funisciurus_pyrropus</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Glaucomys_sabrinus</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Glaucomys_volans</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Glyphotes_simus</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Heliosciurus_gambianus</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Heliosciurus_rufobrachium</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Heliosciurus_ruwenzorii</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Hylopetes_alboniger</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Hylopetes_nigripes</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Hylopetes_phayrei</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Hylopetes_spadiceus</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Ictidomys_mexicanus</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Ictidomys_tridecemlineatus</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Iomys_horsfieldii</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Lariscus_insignis</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Marmota_ baibacina</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Marmota_ flaviventris</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Marmota_broweri</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Marmota_caligata</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Marmota_caudata</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Marmota_himalayana</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Marmota_marmota</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Marmota_monax</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Marmota_olympus</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Marmota_sibirica </c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Menetes_berdmorei</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Microsciurus_alfari</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Myosciurus_pumilio</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Nannosciurus_melanotis</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Notocitellus_adocetus</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Notocitellus_annulatus</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Otospermophilus_atricapillus</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Otospermophilus_beecheyi</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Otospermophilus_variegatus</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Paraxerus_alexandri</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Paraxerus_cepapi</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Paraxerus_ochraceus</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Paraxerus_vexillarius</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Petaurillus_kinlochii</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Petaurista_alborufus</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Petaurista_elegans</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Petaurista_leucogenys</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Petaurista_petaurista</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Petaurista_philippensis</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Petinomys_setosus</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Poliocitellus_franklinii</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Prosciurillus_leucomus</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Prosciurillus_murinus</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Protoxerus_stangeri</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Pteromys_volans</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Pteromyscus_pulverulentus</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>Ratufa_affinis</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Ratufa_bicolor</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Rheithrosciurus_macrotis</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Rhinosciurus_laticaudatus</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Rubrisciurus_rubriventer</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Sciurillus_pusillus</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>Sciurillus_pusillus_kuhlii</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>Sciurotamias_davidianus</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>Sciurus_aberti</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>Sciurus_aestuans</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>Sciurus_alleni</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>Sciurus_anomalus</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>Sciurus_arizonae</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Sciurus_aureogaster</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>Sciurus_carolinensis</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>Sciurus_colliaei</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>Sciurus_deppei</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>Sciurus_granatensis</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>Sciurus_griseus</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>Sciurus_ignitus</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>Sciurus_igniventris</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>Sciurus_lis</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>Sciurus_nayaritensis</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>Sciurus_niger</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>Sciurus_spadiceus</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>Sciurus_stramineus</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>Sciurus_variegatoides</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>Sciurus_vulgaris</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>Sciurus_yucatanensis</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>Spermophilopsis_leptodactylus</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>Spermophilus pygmaeus</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>Spermophilus_citellus</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>Spermophilus_dauricus</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>Spermophilus_erythrogenys</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>Spermophilus_fulvus</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>Spermophilus_pallidicauda</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>Spermophilus_suslicus</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>Spermophilus_xanthoprymnus</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>Sundasciurus_ mindanensis</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>Sundasciurus_brookei</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>Sundasciurus_hippurus</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>Sundasciurus_hoogstraali</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>Sundasciurus_jentinki</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>Sundasciurus_juvencus</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>Sundasciurus_lowii</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>Sundasciurus_moellendorfi</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>Sundasciurus_philippinensis</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>Sundasciurus_samarensis</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>Sundasciurus_steerii</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>Sundasciurus_tenuis</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>Syntheosciurus_brochus</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>Tamias_alpinus</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>Tamias_amoenus</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>Tamias_bulleri</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>Tamias_canipes</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>Tamias_cinereicollis</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>Tamias_dorsalis</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>Tamias_durangae</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>Tamias_merriami</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>Tamias_minimus</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>Tamias_obscurus</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>Tamias_palmeri</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>Tamias_panamintinus</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>Tamias_quadrimaculatus</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>Tamias_quadrivittatus</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>Tamias_ruficaudus</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>Tamias_rufus</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>Tamias_senex</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>Tamias_sibiricus</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>Tamias_siskiyou</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>Tamias_sonomae</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>Tamias_speciosus</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>Tamias_striatus</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>Tamias_townsendii</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>Tamias_umbrinus</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>Tamiasciurus_hudsonicus</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>Tamiasciurus_mearnsi</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>Tamiasicurus_douglasii</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>Tamiops_mcclellandii</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>Tamiops_swinhoei</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>Tamis_ochrogenys</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>Trogopterus_xantipes</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>Urocitellus_armatus</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>Urocitellus_beldingi</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>Urocitellus_brunneus</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>Urocitellus_columbianus</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>Urocitellus_elegans</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>Urocitellus_parryii</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>Urocitellus_richardsonii</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>Urocitellus_townsendii</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>Urocitellus_undulatus</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>Urocitellus_washingtoni</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>Xerospermophilus_mohavensis</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>Xerospermophilus_spilosoma</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>Xerospermophilus_tereticaudus</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>Xerus_erythropus</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>Xerus_inauris</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>Xerus_rutilus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Whole Data'!$B$2:$B$185</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="184"/>
+                <c:pt idx="0">
+                  <c:v>144.96209999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141.31387142857145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.624534444444436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.231684999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.117136956521719</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.943668181818182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.284049999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111.66233</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104.85232500000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.164490999999984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.204366999999991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.789618999999988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>121.08621999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85.97505000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80.868556000000012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93.844642499999992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>129.6147</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135.62440000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>148.97890999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>139.03158999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>134.01231999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105.625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90.554264000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>89.166098750000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>101.001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>98.374820999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>128.12134</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136.49592222222225</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>49.045923333333327</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39.356335999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48.401651999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70.004897</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70.766565</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>87.093720000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77.790751111111106</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>92.038999999999987</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>74.891959</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63.884557999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>51.41497428571428</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>93.405094999999989</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>106.34348</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>97.728026666666665</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84.095470000000006</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>116.36295555555554</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>83.088699999999989</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>70.352499999999992</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>85.597639999999984</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>74.101088000000018</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>94.217666666666673</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>93.437184000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>232.506</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>194.32262666666665</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>212.19250000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>226.17774444444447</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>225.2791818181818</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>240.75656875000007</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>221.83132500000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>230.10146000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>242.63738750000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>214.23114999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>90.815357000000006</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>69.20528250000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>38.515999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43.796469999999992</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>95.458657500000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>108.68225</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>115.45674444444444</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>118.86692000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>124.12540000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>58.156051818181815</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>82.829397</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>79.345480999999992</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>101.67004499999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>52.725707499999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>154.26516999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>132.45948999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>151.43266666666668</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>153.40770000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>146.99694999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>60.236359000000007</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>108.67209</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>84.280514444444449</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>63.023976666666663</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>135.23906000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>76.893826666666669</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>93.427632500000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>132.23756666666665</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>155.39853913043481</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>184.1627</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>100.983063</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>138.20865000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>54.235869999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>53.19</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100.57195000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>122.36921</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>87.694344999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>114.10238</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97.982051666666663</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>126.43498571428572</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>120.89992916666667</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>117.31506999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>127.33197</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>97.470974999999996</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>99.633374000000003</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>137.64052000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>92.783116666666672</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>131.76428000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>98.636821111111132</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>131.19449</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>128.02164400000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>141.40790999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>117.76414</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>123.39321</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>105.73746428571427</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>111.99994999999998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>110.9225</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>93.695284999999998</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>89.170167000000006</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>97.606342000000012</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>109.21476666666666</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>122.32820000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>102.69499999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>93.629734999999997</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>92.490409999999997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>104.17999999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>83.496000000000009</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>117.85155714285715</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>106.925</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>64.359605555555547</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>101.542192</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>73.886802500000016</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>105.10249999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>97.094999999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>95.818833000000012</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>103.077063</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>66.735124000000013</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>87.050150000000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>53.379575483870973</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>58.294312142857144</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>65.839216666666672</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>64.137006666666665</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>62.285219166666678</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>62.724873749999993</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>67.176425555555568</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>69.272787692307702</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>52.435742222222224</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>63.730607142857139</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>65.967500000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>60.978568999999993</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>65.967298</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>65.104573125000002</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>62.034547999999994</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>64.123162000000008</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>69.292381000000006</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>73.375579999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>71.416278333333352</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>68.808464999999984</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>61.851152727272734</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>72.681027999999998</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>69.731898749999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>63.982173333333321</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>92.15066800000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>96.212000000000018</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>90.458327777777782</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>60.837936999999997</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>78.582306363636363</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>72.016949999999994</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>128.18565000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>99.482665000000011</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>97.690303999999998</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>80.253843333333336</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>107.70910000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>92.993102000000022</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>122.57877333333333</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>101.44027100000002</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>79.268494444444457</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>104.206627</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>80.924253999999991</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>80.549732000000006</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>73.211983333333336</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>71.890905000000004</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>111.65329999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>113.17087000000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>105.76719</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC48-8047-9C5E-BB0165C67DD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="575274655"/>
+        <c:axId val="574892815"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="575274655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Species</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574892815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="574892815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CS(Average)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575274655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2358,7 +3872,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2867,6 +4937,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1" descr="Chart type: Line. 'CS(Average)'&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5CE5E3D-28A3-A8BB-CF29-5C56E5443B48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -9824,7 +11935,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E910C6BE-F6D9-B549-A3A6-F79FCFFD9853}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E910C6BE-F6D9-B549-A3A6-F79FCFFD9853}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="C4:D189" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
@@ -10933,8 +13044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696E62CB-728B-1D43-BDAC-C00AA944C837}">
   <dimension ref="A1:B185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10953,1282 +13064,1282 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>242.63738750000005</v>
+        <v>144.96209999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>240.75656875000007</v>
+        <v>141.31387142857145</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>232.506</v>
+        <v>74.624534444444436</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>230.10146000000003</v>
+        <v>72.231684999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>226.17774444444447</v>
+        <v>72.117136956521719</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>225.2791818181818</v>
+        <v>90.943668181818182</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>221.83132500000002</v>
+        <v>84.284049999999993</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>214.23114999999999</v>
+        <v>111.66233</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>212.19250000000002</v>
+        <v>104.85232500000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>194.32262666666665</v>
+        <v>88.164490999999984</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>184.1627</v>
+        <v>92.204366999999991</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>155.39853913043481</v>
+        <v>97.789618999999988</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>154.26516999999998</v>
+        <v>121.08621999999998</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>153.40770000000001</v>
+        <v>85.97505000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>151.43266666666668</v>
+        <v>80.868556000000012</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>148.97890999999998</v>
+        <v>93.844642499999992</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>146.99694999999997</v>
+        <v>129.6147</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>144.96209999999999</v>
+        <v>135.62440000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>141.40790999999999</v>
+        <v>148.97890999999998</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>141.31387142857145</v>
+        <v>139.03158999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>139.03158999999999</v>
+        <v>134.01231999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>138.20865000000001</v>
+        <v>105.625</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>137.64052000000001</v>
+        <v>90.554264000000003</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>136.49592222222225</v>
+        <v>89.166098750000003</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>135.62440000000001</v>
+        <v>101.001</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>135.23906000000002</v>
+        <v>98.374820999999997</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>134.01231999999999</v>
+        <v>128.12134</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>132.45948999999999</v>
+        <v>136.49592222222225</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>132.23756666666665</v>
+        <v>49.045923333333327</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>131.76428000000001</v>
+        <v>39.356335999999999</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>131.19449</v>
+        <v>48.401651999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>129.6147</v>
+        <v>70.004897</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>128.18565000000001</v>
+        <v>70.766565</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>128.12134</v>
+        <v>87.093720000000005</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>128.02164400000001</v>
+        <v>77.790751111111106</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>127.33197</v>
+        <v>92.038999999999987</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>126.43498571428572</v>
+        <v>74.891959</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>124.12540000000001</v>
+        <v>63.884557999999998</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>123.39321</v>
+        <v>51.41497428571428</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>122.57877333333333</v>
+        <v>93.405094999999989</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>122.36921</v>
+        <v>106.34348</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>122.32820000000001</v>
+        <v>97.728026666666665</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>121.08621999999998</v>
+        <v>84.095470000000006</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>120.89992916666667</v>
+        <v>116.36295555555554</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>118.86692000000001</v>
+        <v>83.088699999999989</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>117.85155714285715</v>
+        <v>70.352499999999992</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>117.76414</v>
+        <v>85.597639999999984</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>117.31506999999999</v>
+        <v>74.101088000000018</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>116.36295555555554</v>
+        <v>94.217666666666673</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>115.45674444444444</v>
+        <v>93.437184000000002</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>114.10238</v>
+        <v>232.506</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>113.17087000000001</v>
+        <v>194.32262666666665</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>111.99994999999998</v>
+        <v>212.19250000000002</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>111.66233</v>
+        <v>226.17774444444447</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>111.65329999999999</v>
+        <v>225.2791818181818</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>110.9225</v>
+        <v>240.75656875000007</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>109.21476666666666</v>
+        <v>221.83132500000002</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>108.68225</v>
+        <v>230.10146000000003</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>108.67209</v>
+        <v>242.63738750000005</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>107.70910000000001</v>
+        <v>214.23114999999999</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>106.925</v>
+        <v>90.815357000000006</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>106.34348</v>
+        <v>69.20528250000001</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>105.76719</v>
+        <v>38.515999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>105.73746428571427</v>
+        <v>43.796469999999992</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>105.625</v>
+        <v>95.458657500000001</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>105.10249999999999</v>
+        <v>108.68225</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>104.85232500000001</v>
+        <v>115.45674444444444</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>177</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>104.206627</v>
+        <v>118.86692000000001</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>104.17999999999999</v>
+        <v>124.12540000000001</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>103.077063</v>
+        <v>58.156051818181815</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>102.69499999999999</v>
+        <v>82.829397</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>101.67004499999999</v>
+        <v>79.345480999999992</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>101.542192</v>
+        <v>101.67004499999999</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>101.44027100000002</v>
+        <v>52.725707499999999</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>101.001</v>
+        <v>154.26516999999998</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>100.983063</v>
+        <v>132.45948999999999</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>100.57195000000002</v>
+        <v>151.43266666666668</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>99.633374000000003</v>
+        <v>153.40770000000001</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>99.482665000000011</v>
+        <v>146.99694999999997</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>98.636821111111132</v>
+        <v>60.236359000000007</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>98.374820999999997</v>
+        <v>108.67209</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>97.982051666666663</v>
+        <v>84.280514444444449</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>97.789618999999988</v>
+        <v>63.023976666666663</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>97.728026666666665</v>
+        <v>135.23906000000002</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>97.690303999999998</v>
+        <v>76.893826666666669</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>97.606342000000012</v>
+        <v>93.427632500000001</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>97.470974999999996</v>
+        <v>132.23756666666665</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>97.094999999999999</v>
+        <v>155.39853913043481</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>96.212000000000018</v>
+        <v>184.1627</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>95.818833000000012</v>
+        <v>100.983063</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>95.458657500000001</v>
+        <v>138.20865000000001</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>94.217666666666673</v>
+        <v>54.235869999999998</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>93.844642499999992</v>
+        <v>53.19</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>93.695284999999998</v>
+        <v>100.57195000000002</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>93.629734999999997</v>
+        <v>122.36921</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>93.437184000000002</v>
+        <v>87.694344999999998</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>93.427632500000001</v>
+        <v>114.10238</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>93.405094999999989</v>
+        <v>97.982051666666663</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>92.993102000000022</v>
+        <v>126.43498571428572</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>92.783116666666672</v>
+        <v>120.89992916666667</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>92.490409999999997</v>
+        <v>117.31506999999999</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>92.204366999999991</v>
+        <v>127.33197</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>92.15066800000001</v>
+        <v>97.470974999999996</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="B105">
-        <v>92.038999999999987</v>
+        <v>99.633374000000003</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="B106">
-        <v>90.943668181818182</v>
+        <v>137.64052000000001</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="B107">
-        <v>90.815357000000006</v>
+        <v>92.783116666666672</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="B108">
-        <v>90.554264000000003</v>
+        <v>131.76428000000001</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B109">
-        <v>90.458327777777782</v>
+        <v>98.636821111111132</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B110">
-        <v>89.170167000000006</v>
+        <v>131.19449</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>89.166098750000003</v>
+        <v>128.02164400000001</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>88.164490999999984</v>
+        <v>141.40790999999999</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>87.694344999999998</v>
+        <v>117.76414</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="B114">
-        <v>87.093720000000005</v>
+        <v>123.39321</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B115">
-        <v>87.050150000000002</v>
+        <v>105.73746428571427</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>85.97505000000001</v>
+        <v>111.99994999999998</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="B117">
-        <v>85.597639999999984</v>
+        <v>110.9225</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="B118">
-        <v>84.284049999999993</v>
+        <v>93.695284999999998</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>84.280514444444449</v>
+        <v>89.170167000000006</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="B120">
-        <v>84.095470000000006</v>
+        <v>97.606342000000012</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>83.496000000000009</v>
+        <v>109.21476666666666</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="B122">
-        <v>83.088699999999989</v>
+        <v>122.32820000000001</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>82.829397</v>
+        <v>102.69499999999999</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="B124">
-        <v>80.924253999999991</v>
+        <v>93.629734999999997</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>80.868556000000012</v>
+        <v>92.490409999999997</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="B126">
-        <v>80.549732000000006</v>
+        <v>104.17999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="B127">
-        <v>80.253843333333336</v>
+        <v>83.496000000000009</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>79.345480999999992</v>
+        <v>117.85155714285715</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="B129">
-        <v>79.268494444444457</v>
+        <v>106.925</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B130">
-        <v>78.582306363636363</v>
+        <v>64.359605555555547</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="B131">
-        <v>77.790751111111106</v>
+        <v>101.542192</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="B132">
-        <v>76.893826666666669</v>
+        <v>73.886802500000016</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="B133">
-        <v>74.891959</v>
+        <v>105.10249999999999</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="B134">
-        <v>74.624534444444436</v>
+        <v>97.094999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="B135">
-        <v>74.101088000000018</v>
+        <v>95.818833000000012</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B136">
-        <v>73.886802500000016</v>
+        <v>103.077063</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B137">
-        <v>73.375579999999999</v>
+        <v>66.735124000000013</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="B138">
-        <v>73.211983333333336</v>
+        <v>87.050150000000002</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B139">
-        <v>72.681027999999998</v>
+        <v>53.379575483870973</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="B140">
-        <v>72.231684999999999</v>
+        <v>58.294312142857144</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="B141">
-        <v>72.117136956521719</v>
+        <v>65.839216666666672</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="B142">
-        <v>72.016949999999994</v>
+        <v>64.137006666666665</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="B143">
-        <v>71.890905000000004</v>
+        <v>62.285219166666678</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B144">
-        <v>71.416278333333352</v>
+        <v>62.724873749999993</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="B145">
-        <v>70.766565</v>
+        <v>67.176425555555568</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="B146">
-        <v>70.352499999999992</v>
+        <v>69.272787692307702</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="B147">
-        <v>70.004897</v>
+        <v>52.435742222222224</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B148">
-        <v>69.731898749999999</v>
+        <v>63.730607142857139</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B149">
-        <v>69.292381000000006</v>
+        <v>65.967500000000001</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B150">
-        <v>69.272787692307702</v>
+        <v>60.978568999999993</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="B151">
-        <v>69.20528250000001</v>
+        <v>65.967298</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B152">
-        <v>68.808464999999984</v>
+        <v>65.104573125000002</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B153">
-        <v>67.176425555555568</v>
+        <v>62.034547999999994</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B154">
-        <v>66.735124000000013</v>
+        <v>64.123162000000008</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B155">
-        <v>65.967500000000001</v>
+        <v>69.292381000000006</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B156">
-        <v>65.967298</v>
+        <v>73.375579999999999</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B157">
-        <v>65.839216666666672</v>
+        <v>71.416278333333352</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B158">
-        <v>65.104573125000002</v>
+        <v>68.808464999999984</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="B159">
-        <v>64.359605555555547</v>
+        <v>61.851152727272734</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B160">
-        <v>64.137006666666665</v>
+        <v>72.681027999999998</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B161">
-        <v>64.123162000000008</v>
+        <v>69.731898749999999</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -12241,193 +14352,194 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="B163">
-        <v>63.884557999999998</v>
+        <v>92.15066800000001</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B164">
-        <v>63.730607142857139</v>
+        <v>96.212000000000018</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="B165">
-        <v>63.023976666666663</v>
+        <v>90.458327777777782</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B166">
-        <v>62.724873749999993</v>
+        <v>60.837936999999997</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B167">
-        <v>62.285219166666678</v>
+        <v>78.582306363636363</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B168">
-        <v>62.034547999999994</v>
+        <v>72.016949999999994</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B169">
-        <v>61.851152727272734</v>
+        <v>128.18565000000001</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B170">
-        <v>60.978568999999993</v>
+        <v>99.482665000000011</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B171">
-        <v>60.837936999999997</v>
+        <v>97.690303999999998</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="B172">
-        <v>60.236359000000007</v>
+        <v>80.253843333333336</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="B173">
-        <v>58.294312142857144</v>
+        <v>107.70910000000001</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="B174">
-        <v>58.156051818181815</v>
+        <v>92.993102000000022</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="B175">
-        <v>54.235869999999998</v>
+        <v>122.57877333333333</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="B176">
-        <v>53.379575483870973</v>
+        <v>101.44027100000002</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="B177">
-        <v>53.19</v>
+        <v>79.268494444444457</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="B178">
-        <v>52.725707499999999</v>
+        <v>104.206627</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B179">
-        <v>52.435742222222224</v>
+        <v>80.924253999999991</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="B180">
-        <v>51.41497428571428</v>
+        <v>80.549732000000006</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="B181">
-        <v>49.045923333333327</v>
+        <v>73.211983333333336</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="B182">
-        <v>48.401651999999999</v>
+        <v>71.890905000000004</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="B183">
-        <v>43.796469999999992</v>
+        <v>111.65329999999999</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="B184">
-        <v>39.356335999999999</v>
+        <v>113.17087000000001</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="B185">
-        <v>38.515999999999998</v>
+        <v>105.76719</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1679">
-    <sortCondition ref="A1:A1679"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B185">
+    <sortCondition ref="A2:A185"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Project/Relationships in Squirrels/SquirrelData.xlsx
+++ b/Project/Relationships in Squirrels/SquirrelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylorsexton/Desktop/Evolution/Tasks/Project/Relationships in Squirrels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354111D2-3FCF-E248-AD0A-8DF6BE9AC066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370FBAAB-61DC-B341-B145-065CA753EE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16620" xr2:uid="{264B77BE-28CE-D948-BD10-0CA1F0DB2D4F}"/>
+    <workbookView xWindow="13040" yWindow="740" windowWidth="29400" windowHeight="16620" xr2:uid="{264B77BE-28CE-D948-BD10-0CA1F0DB2D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Whole Data" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Whole Data'!$A$1:$B$1680</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Whole Data'!$B$2:$B$185</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Whole Data'!$B$2:$B$185</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Whole Data'!$B$2:$B$185</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Whole Data'!$B$2:$B$185</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Whole Data'!$B$2:$B$185</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Whole Data'!$B$2:$B$185</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Whole Data'!$B$2:$B$185</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Whole Data'!$B$2:$B$185</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -3832,6 +3840,175 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Frequencies of the Average Centroid Size</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Frequencies of the Average Centroid Size</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{2F54DB50-DD34-634A-B712-251DCA29CABC}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="595959"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="20"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.330000013"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  </a:rPr>
+                  <a:t>CS(Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Frequency</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1800"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Frequency</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3873,6 +4050,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4429,6 +4646,514 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4938,15 +5663,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>93134</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>93132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>4234</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>148165</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4969,6 +5694,84 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>402167</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>338668</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>105835</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2" descr="Chart type: Histogram. Frequency of 'CS(Average)'&#10;&#10;Description automatically generated">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A0E289-390B-7690-F075-3EE14B53E661}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5947834" y="1947334"/>
+              <a:ext cx="10435167" cy="5566834"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11935,7 +12738,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E910C6BE-F6D9-B549-A3A6-F79FCFFD9853}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E910C6BE-F6D9-B549-A3A6-F79FCFFD9853}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="6">
   <location ref="C4:D189" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
@@ -13044,8 +13847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696E62CB-728B-1D43-BDAC-C00AA944C837}">
   <dimension ref="A1:B185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14547,8 +15350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FAF319-4EFF-4341-8080-C767C1D467D0}">
   <dimension ref="B2:D189"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
